--- a/artefacts/dataTreated.xlsx
+++ b/artefacts/dataTreated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomek\Desktop\wagesInPoland2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomek\Desktop\wagesInPoland2021\artefacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C3A1BF-ED60-4A0C-8996-A05F16463790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A502481-4AE4-4808-9D51-0FCB7AB2D815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,7 +190,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -198,41 +198,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -267,6 +239,34 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00FFBA17-93D1-4AF1-AC74-267B6969D40D}" name="Tabela1" displayName="Tabela1" ref="A1:I2530" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00FFBA17-93D1-4AF1-AC74-267B6969D40D}" name="Tabela1" displayName="Tabela1" ref="A1:I2530" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:I2530" xr:uid="{00FFBA17-93D1-4AF1-AC74-267B6969D40D}">
     <filterColumn colId="4">
       <filters>
@@ -456,7 +456,7 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F9683750-FB07-47F0-AA83-E2B39285621C}" name="Kolumna1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F9683750-FB07-47F0-AA83-E2B39285621C}" name="Kolumna1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{5131FC37-A81A-4E5A-BCC2-901EA17A7523}" name="m2"/>
     <tableColumn id="3" xr3:uid="{ABF652AB-91AB-4DC4-A2C3-0E0B013AE32B}" name="matura"/>
     <tableColumn id="4" xr3:uid="{52B14EA4-D7F4-493B-9893-8A2ECE4C507A}" name="najwyzsze"/>
@@ -68653,8 +68653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A91EFE-5E73-4556-B897-5AC2E9DFC582}">
   <dimension ref="A1:H936"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A911" workbookViewId="0">
-      <selection sqref="A1:H936"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
